--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/60_Muş_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/60_Muş_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{304B2553-FAE6-41DA-8475-6A4A1AEEF569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6C448A-6896-467C-ACBF-EDF6A51176DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{18632BEB-71B4-4210-9D50-DDD2726EB0D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{E5652DFB-7017-46F1-BA20-8EE8EBB50760}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -969,13 +969,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A79D57C1-391D-4D99-A1E2-CE91369E5B14}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F44B4B0D-158E-4AB9-92CF-7070918B0CE1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{68A0A3D5-8DDC-45A1-8B3F-C250B308BDC5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6F0CE6BE-6254-4F43-97AF-5D20BB814F93}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DF9734AA-8B0D-4AE2-BFB5-B79715038942}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0169CBA9-0A0F-43BC-ACCF-EB06E84C0EAF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2A356697-205E-4D39-AE2C-06EEE66927C7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{16E70951-BD97-4AD6-8650-D2DF8C7D7C58}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F2BC01E6-2412-4E53-90F5-58FFD9CB521C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{74C95506-AB5B-4FC6-9CB8-E3B890224F87}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{49AAE898-7807-41F5-B498-E39F5666B098}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{53AD242A-1099-401C-951C-72ED20CE2FC3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C37048F2-76F0-46A8-A947-C37E3167D0B3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{412D81AC-6E8D-4698-A967-4CB895939C2E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DFD6A7-868B-4EC1-86E3-0659DA1F8063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF6F661-3FAD-4CF8-A16B-CB9BC2E5A112}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2540,18 +2540,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F54D41F0-F096-4E21-B130-5ADC035AFAEE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0823D218-8FB3-4307-92B5-091E67E505E3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3F4431BE-5C93-467B-AD2F-3EA2B474DFC6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F5F8099-D018-4BCA-938A-D7A6FFEEA3E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09E26BD6-A1CB-4B81-B059-0B656303380E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D7828D9-BDF6-41F9-9FD8-1662EDE1852E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD3317A4-33C1-4EDC-9946-A1B11F592A9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3723F2C-6946-4767-AF00-98AE48AC9010}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6CE65F3-F4C9-4912-98CD-B03848C100B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2D280701-6945-4171-B5DF-AC6F632D4180}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E242A79-328A-42EC-B501-823E6B83AEE7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE07EA07-4B7A-4C69-B3BA-027A441CCF27}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA55BE49-CA04-4D79-BB0D-EE0DB45E3383}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8259231-03EF-4699-B23F-09131470981F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7A0E8F47-0592-44AA-81E6-3728DAA5D536}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7AF919C-46BD-44AF-9841-34F5EE6D973B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F6C79F0-B320-4115-A308-B4ED48F87200}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D98A2ADC-AE4B-417B-8706-D6494417BD60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C2770D7-CE34-42FF-91C8-9DC5563176D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{730B5A5F-4BF9-4461-B997-28877CADF65E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68940AE4-95E6-419E-8128-9E36F8DFD41D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E82F65C-0A47-45F4-8F50-8BC1C2B0F1D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4A8A2DE-5A3A-46C8-9A69-7678AA99A6C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F6B0DF9-EDD0-47DB-945B-8D99AFC2CD93}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2564,7 +2564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFCA2E2-9CB3-4DCF-8044-A61D0273A65C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2B2A8-7D2E-419C-AF91-F23A0ED09C81}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3748,18 +3748,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96144C26-5FCD-4324-9A5B-3E17BEE19B81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53C70FFB-AB26-4B26-823B-B27EF18FD7E1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4274B29-9500-437C-830B-45D6CF18C5D8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D35D685-EA01-4328-BA73-78D056D98ED0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FD6FD38-17ED-4C3C-9742-0E680E5BC150}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{26E879BC-4740-4412-AF6F-4E7286FEB705}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A5D5C13-6320-4A00-AC3C-E6B05C835276}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94A046B5-D3D3-4E93-8507-F94C2FCA4D61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E89F168B-4CAA-4F59-8A35-EF87C7DDA351}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F546F418-16CA-4511-988C-791594B32894}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B90272BE-8F9D-42F7-BAAD-9CE99A30DF6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F8EA36F-8845-405B-91AA-F3C3F2093A23}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29616A70-F30A-4B27-87EA-8E73A05C5C20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CDAB5A0-8829-4484-A321-3F1AB37E9960}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A12A9E5-7980-4687-B432-AA40968FA303}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3557A902-52B7-4E30-869D-B91E945FA28C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FB1764E-B570-4DDD-811B-258B564C1932}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{78AB93E7-3BA7-4C1B-9594-7E07DF0B39CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C314F12C-031D-4C12-9E0B-D36B500017F1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{945FFAF2-3DAE-486A-8033-7B810BB95A31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC8D8A29-1707-4AD7-9A75-ADC9148A446F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9E77638-063D-4BEF-94BD-952FD5A92813}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2BC50BF-CEC0-41BA-958D-48C99F0D4474}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{967C96E7-5D9C-4E56-B272-AD8AC6C22F20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3772,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95BC53E-9305-4383-B943-0AD7111FE868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6EA405-A50A-435B-8C94-6D2853E4C332}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4956,18 +4956,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{058381F8-12EB-4C8C-BE41-37824034E3F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03F48BEE-4513-4B7D-BEBA-F6DD68BB2C21}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE1A810C-D8A4-4CA1-8CF3-42C768C2F42B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B7480CC-CE65-47F6-8459-4C331C45DBBF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8260A296-3E9C-4624-85FB-D3784788E707}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2CB0DC40-5D27-4B95-A226-AB8ACBAF69F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B6EF392-E774-4CCC-8CD9-7D9E41C6F16E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEB927F0-C742-47FF-9209-D1C928FF98FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56E7C26D-FA67-4B54-8993-9A9C7683BB63}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{757D7C99-D239-4BA3-92E1-8BBF9CE220F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{474E55D1-CBD1-413C-8F5B-E1736D257642}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C637918-2BF3-4B3D-8513-683FE8DD0EBC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{432E1333-99E5-4BCD-910C-D61E91028BA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E645B8FE-2BD7-4AAF-AB62-39CDEA73687E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D00B0DC-3697-4DC8-8B80-5842E6E2D2CF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4EADE401-6070-4754-815D-CA4591F24987}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DA3EFC1-D889-4FE7-B732-29CB0808260F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C205F353-741D-4B22-A966-FD2C409470D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D9A1B37-CF50-4135-838B-2F2E7FA89C28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3DA0C71-5433-4609-9E77-93AFB9535DD1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20DE733E-85D7-4869-A4AD-E6DFB7E93C71}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5522334C-7540-4A2E-A796-3DB32F309E3A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB8E3F93-30A2-4507-9A3A-FAF8CACE3654}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D93FD011-A743-4B3E-B8BB-BB278F4B8F03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4980,7 +4980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BBB4AA-EC64-4F90-897F-0AC53E04084C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3F848-10FA-476C-AF47-BFF12E779AE5}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6158,18 +6158,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D22EE198-F15C-4D5F-BB27-5F2794E336E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DC5736C-1915-4F15-9700-354EF2D6AAB4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC0E6D8E-A8E2-4887-B99D-E4C72ED686CB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{55272823-1CA0-4270-A7A8-5916E128A6F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59A5513C-D677-45E0-A79E-C00D498E9EFD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{196B0111-EB7E-4782-94DB-2078E9E6DB8E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C89A53B3-CE15-4019-959F-08A6D8CCC9D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12343024-188F-4291-B8CC-49A0E26181DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{767E12D0-0CA0-4BE8-BDD5-0FF5B2807F6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6D6DDA2-FAC7-4C76-AE31-E80C8C0F9CFB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{218832E1-1EA3-4232-909A-DAA219C5DF18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8241F637-D801-4F19-A02E-F22CFB1DE766}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD60CC42-6DA2-422C-A7BD-C1515A853C27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03FDCBFC-A168-4432-8956-A1336E723202}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF7CB4A0-7FB4-4F43-A676-B49A00EB91D6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9D4D59E-BF58-47F4-90D3-17537FBE7F12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F19E0A76-C8F8-46F3-B202-EFB1D862EC1E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{97CB68C1-85E7-453A-B9E6-FBEC2DAA9F49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C6988E8-FC59-4625-8125-EBAA7DFDF8D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CDE100D-539B-4C56-B3FD-CE4C30F9FE8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27AE4EFF-DA46-4C3A-A5A5-E3C5A38C6814}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DAB95D28-B86C-46F3-8ECB-AFD8B4FFE323}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7248CB8-51F1-443A-9ED3-FC8720984587}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3DB1417B-D550-44DE-AFCC-F6D28355D626}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6182,7 +6182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB9029-5280-4F50-8DC0-BE743548B36B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FAB31D-BB6F-4BC8-94BE-01B4E21C48CA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7379,18 +7379,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EE84A7D-4A60-4B4B-A984-89E8091CCB8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FDE3945-11B2-48EC-9120-FBEB6E62ADCF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7DFA714F-D0AD-46DE-B097-9328ED175F64}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0C741B5-8924-42C9-9C0F-0BF257D85DC2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7219BCDD-B5DA-424D-B16C-90BE07037C6C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A28760B-EBF2-4C9E-9DD2-B8A25B63A39C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFF86659-80F8-45A5-8CA1-B37DCA1524A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE6CF43A-0C84-4A28-8BCB-A805215D0106}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A1C6382-CF8B-45E0-8049-390FAF093B4A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D013504-5840-49D2-B643-CD1D321A0564}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DBF63BC-2591-4A7C-842B-47BD377CA65B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7DDF645-AAC1-40E1-AE2C-43EE60548DD2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A7193D0-C41B-484F-B3F1-3415E4FF10DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCDCC6AC-4765-471E-965D-7132423A337B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C9BCC9B-FA47-4C14-980F-92DA411103A5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{128D99EA-945B-4BB5-A918-8BD0E7F76DFE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6EE12B6F-EFA9-437D-ACD5-AD68722ED25F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{21B65B05-E229-4474-AB07-4E19A88A996D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E2642E7-E2FE-446A-B35B-0096FB38E4E2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40B15480-D526-4029-862B-1A913271E05A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D55C549E-014D-43AD-A44A-5CC9F9B2696A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F808CD69-A840-4FD3-81DE-2A2622759592}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11F39E31-D40D-4199-AA9B-37C004179522}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA1B87C8-542C-47B9-9F9A-EEF729E7AF4F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7403,7 +7403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774B3FFE-5926-45D1-B451-2D798D8406C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C1782B-60FF-462D-9A80-AB246D0E2DAE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8602,18 +8602,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF556C32-DC5B-4211-87CE-BAF4604D292E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9BBEFC6-D28C-474C-A9C4-409BB767A51C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{185EBFC1-BEA4-40B7-81FF-756E1C701808}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DF2CD1CA-91C9-4743-BE08-872FC3142C80}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79C5E931-B605-448B-BF09-23E3619F906B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{90ED949E-5866-4B42-B5C1-965120B02EB2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37B4A4FF-FA08-4C86-84C3-F2710543E9BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1209EDC3-A410-46A0-87F7-3C4B542EF12E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41B25F33-126C-4252-A6C3-F1AE1A162F8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A686EAD9-C7B4-4D7E-899A-BF931EEFE5FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15B27C8A-0AC7-4757-A26B-724F29D364D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{040806D5-2192-4A48-926B-E6CBE5712C23}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{717DA6F2-8D0A-4C04-8834-DCA0427594D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E88E050F-4FED-4268-8022-2349689863B1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5795D337-7EBD-425F-BE37-42F981C9255A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AE61FD9-4A2D-4B3B-BF4C-EE4487874A5D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68BAE2C0-7D5B-4F48-90D3-9A42AC07ECBF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{823899B9-DBE8-4053-85B1-DCA91ED0FD00}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8D33855-2C4A-4302-B073-EF055B36AD64}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AC5EEE8-964C-4A90-891B-291B65173197}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5EABF17-9254-47DE-BDC1-587032F12B0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97182456-6AC0-45E2-9C5A-B447DBE826F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B86AE0E-40FA-43CE-9A30-AAFB24C1D4D8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{168804E7-8E97-4E6F-A6DA-681DA5E75997}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8626,7 +8626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2DE1B-5B95-4411-BCD3-B042985F177E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F515E0F5-C2E8-4ECF-BF4C-7E9E20F729AA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9825,18 +9825,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BA42629-0A3C-40CB-95AE-2D45D7FCB1C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D9A2D12-E443-4226-AFA7-EE844217F817}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B06A83D3-7EB8-4D00-B2FE-3F37CEA3A419}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6BCFD563-9406-436A-8C33-991B03432498}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AD4B173-DE63-4F09-8555-8148C9243164}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{88A062AC-C609-4E15-85AD-3B013DBD8091}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA039E45-9D67-47D6-A884-28A5F5F957BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CB0FCFD-1FD7-4BE7-B415-A0F7592A798A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15457460-B5CE-4C8C-A2C5-C4EBDFC7392B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5B69B03-7B7C-4C29-80CA-A445A1F40A08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0CE66A7A-55AE-4244-B3F0-648C65313BC0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40F823D5-9DD4-4B54-93CC-97C1F16FBF87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B9FF2E3-9752-424F-802C-EF94D991267A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60C47F42-74D0-4F18-A2EE-659A2B425985}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A3D46C3-0EB7-49CA-A5AC-15BC8089D824}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1348A532-B238-4559-881B-DB41410FAD37}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7BC74AC9-9106-426F-AE93-DDB63B1CA830}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FCF00288-36BD-43E4-9FCB-3F5BD386C717}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3AABE7EE-B7E7-4350-94A5-1AE00E67ED9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA02E001-9FC1-4D9C-AEEA-E630BC657075}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4EEF1489-CE5D-473D-8FD2-AF1088703B7E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49EF5AE2-CAAB-41B9-89D5-C202840EA037}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4920B17D-95E8-4939-B570-662F76F9EC59}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7262E53-53F0-4C46-8135-BCAC06E27030}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9849,7 +9849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8A629D-23D9-488F-9939-DFBF0BA04175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5EDE2-BAF7-4F3F-A79E-A1A1E4C59E04}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11042,18 +11042,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A9B8767-4156-4A5D-8880-75D5271CE171}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1EBD97C-EDA7-4FA0-A4B0-69BCB381165D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06B1289E-AC67-4991-8E8D-5F525D586BF2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5035394B-C5E6-44E6-966C-A02961424BCE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F81AD19-2F23-4987-BCED-A74495B05C65}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C0E37A22-A94F-491F-8BFF-57031CAD7D40}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB3A8EA3-A07B-4797-9DF2-3E2C9C433452}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D655B30A-BCB4-40A5-8B2A-405EFF86613F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DDE89DE-AC95-415F-AE78-BBCA5F8C4952}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18E58C2A-11C6-4983-BB76-5062AD4CA14E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A3EC20E-67C7-48B8-BA15-ADFAFE0C40CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37E92EC5-4745-44FC-8421-784CE48C811D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB70FF87-466A-432D-8A31-6BE54E560BEE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{808B5C20-6AA2-459F-9195-97B3555C9223}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F5FF317-05BB-422B-AF0B-CD689E844950}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54305C63-0727-46F2-B777-B3FA248DC647}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A150DA3-8266-41BB-821B-9C002EA39702}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{678A7662-47E1-4388-8268-1722F66E2FD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{782F50C3-1F6C-4E4B-9843-FEF10FDFFAAF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5A3E411-C556-426C-B588-D9BBBA89E806}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B53A40C1-98B7-4F14-BFCB-1875BEBC108C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9C05E4E-C96C-47AE-9C4D-2506CF698A6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE098D00-59AC-4C71-901E-4F1C6582B8DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95F2D3E3-BAB0-4309-8125-135421EB8A12}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11066,7 +11066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A77AF77-A2BC-4B0D-88C6-C1434E11A718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2DC394-FB7D-47EC-80FC-49C40BEBB75D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12259,18 +12259,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61AA51D0-7DB8-4274-8768-9E6F570F9289}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{177D4796-F6C6-43CE-893B-F7403BFCAA8B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A19B1EF-CB66-41B9-9C86-5035872F777D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A63604F-536C-4A39-B981-CD86344F53B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D7AB631-43DE-4573-BB67-DB93F4AF6E99}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ADE421E9-FD9C-4BF3-9443-1011A3E7466C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D33BB33-B119-4FA5-BB01-AF33A865D20E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F714D1F-4CE5-4EDA-B930-8E891897ED74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07FFF067-56CE-478F-AA98-87D8F0495C34}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{946BE020-8866-4DA3-810A-611E39A5D7FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4E775B9-2713-4310-BA23-68C654905C0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F8B6575-62E7-4A02-8702-8B145EEB2036}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89BD3D7F-63E1-46EB-8A21-86F7E680D764}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC7A9A32-6AEB-42E6-BD61-980FCF923DCE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34D87E36-E507-49CE-B182-4B9E5C882522}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{274434D6-B268-4D1A-8882-FFD5F973426B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F7C6A0F-C676-4F65-89B3-D3E8EFC4AE35}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BDB5ECB9-4E9B-4E44-A239-496B19272D62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15861F12-6D4C-40C2-9439-4A467FB6A714}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DD1F7DC-2A07-4A1A-AAA1-0B48FCBE6EBB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{707B4FA6-0EA0-4B16-987A-B567814FBEAA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7270DCB-DBA0-4D26-9FB9-600E31B1AC72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C723FFB0-F043-4713-858F-7C1CB1EAB719}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2DE485D-0EFD-4181-A7FB-FE92AA085B37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12283,7 +12283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84142B85-E2A1-4173-9A43-18DC9981A7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF930A1-76DA-4275-8F9D-4AD122280F98}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13472,18 +13472,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DF8998D-B756-4809-A36C-A389321F033E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{943C92DE-AD1D-4D3C-8664-BA5D05131850}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E341E6D6-C1A4-4423-9A69-A7B4B9C7AC56}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CEA17499-CF71-4ED9-9AF0-0F61B212B7E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AE93796-CD78-4D5D-9217-F21BCC125F96}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{01355DE3-1484-4559-974D-98042CEFBD1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25D94DBF-FEE2-4F41-8D3D-9CF88C36F07F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1374FFAB-8C70-47F5-B49A-31C21EAE4C03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C923643-02F9-4161-99E0-375F4AD5B452}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DF8DF58-BF22-4AC9-9B25-98AD393EEADE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85F02B1A-BB1B-4CDD-A6EC-88AF35D04DD7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08FD50BC-859F-418D-BEA7-0FE4832381F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F05767F1-9174-4B12-9DBA-CCB5B20FF4EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15734AF2-71A3-483F-8777-0FA3592AC55E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B2306C7C-7553-4FDC-AD7E-B59DB9B377CC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8FE6F1D8-E0C0-47F5-AF58-015090C7AFDF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D30FB798-AC9F-4988-9FA1-22CE49149036}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5BADB448-5DBD-4C6A-9B23-D1F83837CCAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38C47886-46E9-4FED-975C-7C95B13D9784}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB465ED1-87E0-43BA-992F-BC9D72795125}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72CAB4B3-F695-43BC-B196-1CC2163CE6B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BC5120E-D529-4735-AA92-80B8C133AB33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB3820E7-9BE6-410F-BD28-7A03B52B4C0F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFA02844-E828-4C3E-90A8-EBC7FE43B11A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13496,7 +13496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B216A3-0965-4E21-B4D2-6FB5B0D0C372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955C85A9-E648-43E8-B3CA-0A19A067B2E0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14685,18 +14685,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E36F637-59A2-4561-A40F-75B1E2A5082F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5057A617-9330-45F1-BEFE-7EAE606C3EB2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{157412A9-64B4-478F-B37D-86C814DCBB90}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00DFF540-0548-49BA-B7D7-9E0EFD9E3CE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DB8EE1D-5F01-4A2B-824A-9DCEA0ED5708}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{914124DE-BC1A-4A31-97D6-CF3BC36AEBE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E8AF866-B138-4C2A-8B2E-5C6DA7AA7A7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08DD0CD3-7D4C-4AE5-93EB-825B2F357FBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{622505AB-6277-4EE8-8374-B9327B6D7C28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77E242AA-A0E2-4745-8EA4-4E76010312F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB6FEC35-042D-4A43-B232-3860C41ACB06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{746159B6-F2B5-4218-85DD-113DD9646F78}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{974E9C47-825C-4187-94B1-D3E8F6E2D775}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EE3A4B9-04E2-4E1D-B770-E3EA7A6F47DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{57081E11-FBA5-47D6-BA24-392C303D0294}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C1F64F7-9F79-4BF3-B269-1192191818D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79DE0E24-821B-4C26-A8AC-B9DD26810E69}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{26E38539-CD31-48C7-B4F1-CCAAFA035C2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D67E1FC-7833-4546-9921-E015F2FED5DA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70068F27-0A3E-47F1-BC6C-C55DC87C1EC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BA0DD72-3DF8-4651-BB9A-32D9F7CB8EF5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89F47AFC-EB90-46EB-B3FA-1F67FF34BD8C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B539AF7-E243-4956-A64B-6B53CA20D52F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{955AF358-1D76-4EF0-8A7A-AAA8D0C0ED56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14709,7 +14709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C295D7FC-5333-48E1-9ACB-4A94EF611CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E07F70-E7C7-4673-8C48-7D2FA3561214}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15901,18 +15901,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD2E7589-B1A4-4684-830E-62124D929B06}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B74C7273-AD63-4D6F-82E1-495728721965}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4EE647C-2546-425D-B1D6-68CBD988E3CB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{33451508-3DC1-42B9-BA45-3BA75C85C44F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60DD852C-5CB0-4960-B8A5-635EF6115BC1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B92BBE8A-D8D9-44D8-B9C5-23A74729CD82}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE98571F-50CD-4F69-A528-9DBC33A018DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC81DFFC-2EEA-4904-AC61-2C9D1A91CAD7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD8E50DF-47AA-4FA8-AA2F-F458290A9F0D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C5784F4-7E5B-441E-9F88-E1A68EADF318}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85AFAD3E-6D78-48CC-AE3B-2200219C03B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B398C86-C6E9-4E63-A877-3E3B59BCAE71}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91D27262-E00B-47F6-8A71-E34DC443D457}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9285A07-4685-46D8-B7B1-936F77CFC8E5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4AD5B530-F604-41A4-9C9F-82FB97AA52E3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{112C71D9-6F9A-4CCA-9FF0-758C1B24BCCB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F6A1EC5-EFB0-4DF7-BCE2-94582DC407FF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EF1A2B07-0B01-4579-9FAF-0E780C80426F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F04D7EA-44A4-40A1-884E-95F9CD6B8EE0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{861E501D-9591-4044-8F99-477927843CB9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E7EEB05-E1F8-4464-8FF7-491AD6D1F7F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C7FA468-DBA1-4388-8EA5-A10AD13F21E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8546DEDF-0AE9-4662-8225-219F48C7F1EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48D41FD9-CF4F-496F-A14F-9D35FA27247E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
